--- a/news_headline.xlsx
+++ b/news_headline.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3일 전국 맑고 일교차 큰 날씨…강원 등 강풍 주의</t>
+          <t>[오늘의 날씨]부산·경남(3일, 화)…대체로 맑음, 일교차 커</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[내일날씨] 한낮 29도 다시 초여름 더위…동쪽 강풍 '산불 조심'</t>
+          <t>[종합뉴스 날씨] 내일 서울 초여름 날씨…동해안 강풍 주의</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>'날씨야 놀자' 국립대구기상과학관, 어린이날 행사 개최</t>
+          <t>[날씨] 맑고 쾌청…강풍 부는 동해안 '산불 주의'</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[퇴근길 날씨] 동해안 산불 조심…내일 초여름 날씨</t>
+          <t>부산, 대체로 맑은 날씨…낮 최고 20도</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>맑고 큰 일교차, 강원 영동 강한 바람[오늘 날씨]</t>
+          <t>[오늘의 날씨] 대전·충남(3일, 화)…아침 '늦서리', 일교차 커</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[날씨] 저녁까지 곳곳 요란한 소나기...내일 쾌청한 봄 날씨</t>
+          <t>[날씨] 전국 맑고, 영동 강풍</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[내일날씨] 전국 맑고 일교차 커…미세먼지 '좋음~보통'</t>
+          <t>부산, 대체로 맑은 날씨…오후 요란한 소나기 예상</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[종합뉴스 날씨] 내일 낮부터 기온↑…중부 강풍주의</t>
+          <t>[오늘의 날씨] 전국 대체로 '맑음'…"일교차 유의하세요"</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>대구·경북 낮 최고 20~24도···맑고 건조한 날씨</t>
+          <t>[출근길 날씨] 아침 쌀쌀·낮엔 따뜻…동해안 강풍 주의</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[날씨] 내일 맑고 예년보다 따뜻...동해안 '양간지풍'</t>
+          <t>[내일날씨] 전국 맑고 포근, 낮 최고 29도</t>
         </is>
       </c>
     </row>
